--- a/config_Release/vip_up_config.xlsx
+++ b/config_Release/vip_up_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\JyQipai_doc\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="vip_up|vip升级" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -94,40 +94,41 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;2次&lt;/color&gt;\n2、福卡容量提升为&lt;color=#FFCF0F&gt;200福卡&lt;/color&gt;\n3、每日转运金由&lt;color=#FFCF0F&gt;3000鲸币&lt;/color&gt;提高到&lt;color=#FFCF0F&gt;4000鲸币&lt;/color&gt;\n4、享受vip专享福利</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;5次&lt;/color&gt;\n2、福卡容量提升为&lt;color=#FFCF0F&gt;400福卡&lt;/color&gt;\n3、每日转运金提高到&lt;color=#FFCF0F&gt;5000鲸币&lt;/color&gt;\n4、享受vip1所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;10次&lt;/color&gt;\n2、福卡容量提升为&lt;color=#FFCF0F&gt;1000福卡&lt;/color&gt;\n3、每日转运金提高到&lt;color=#FFCF0F&gt;6000鲸币&lt;/color&gt;\n4、千元赛可免费复活&lt;color=#FFCF0F&gt;1次&lt;/color&gt;\n5、享受vip2所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;20次&lt;/color&gt;\n2、福卡容量提升为&lt;color=#FFCF0F&gt;1500福卡&lt;/color&gt;\n3、每日转运金提高到&lt;color=#FFCF0F&gt;7000鲸币&lt;/color&gt;\n4、千元赛可免费复活&lt;color=#FFCF0F&gt;2次&lt;/color&gt;\n5、免费参加鲸鱼明星杯\n6、享受vip3所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;30次&lt;/color&gt;\n2、福卡容量提升为&lt;color=#FFCF0F&gt;3000福卡&lt;/color&gt;\n3、每日转运金提高到&lt;color=#FFCF0F&gt;8000鲸币&lt;/color&gt;\n4、千元赛可免费复活&lt;color=#FFCF0F&gt;3次&lt;/color&gt;\n5、畅玩所有游戏\n6、享受vip4所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;50次&lt;/color&gt;\n2、福卡容量提升为&lt;color=#FFCF0F&gt;5000福卡&lt;/color&gt;\n3、每日转运金提高到&lt;color=#FFCF0F&gt;9000鲸币&lt;/color&gt;\n4、千元赛可免费复活&lt;color=#FFCF0F&gt;3次&lt;/color&gt;\n5、享受vip5所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;50次&lt;/color&gt;\n2、福卡容量提升为&lt;color=#FFCF0F&gt;10000福卡&lt;/color&gt;\n3、每日转运金提高到&lt;color=#FFCF0F&gt;1万鲸币&lt;/color&gt;\n4、千元赛可免费复活&lt;color=#FFCF0F&gt;3次&lt;/color&gt;\n5、享受vip6所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;50次&lt;/color&gt;\n2、福卡容量提升为&lt;color=#FFCF0F&gt;20000福卡&lt;/color&gt;\n3、每日转运金提高到&lt;color=#FFCF0F&gt;1.2万鲸币&lt;/color&gt;\n4、千元赛可免费复活&lt;color=#FFCF0F&gt;3次&lt;/color&gt;\n5、享受vip7所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;50次&lt;/color&gt;\n2、福卡容量提升为&lt;color=#FFCF0F&gt;30000福卡&lt;/color&gt;\n3、每日转运金提高到&lt;color=#FFCF0F&gt;1.4万鲸币&lt;/color&gt;\n4、千元赛可免费复活&lt;color=#FFCF0F&gt;3次&lt;/color&gt;\n5、享受vip8所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;50次&lt;/color&gt;\n2、福卡容量提升为&lt;color=#FFCF0F&gt;50000福卡&lt;/color&gt;\n3、每日转运金提高到&lt;color=#FFCF0F&gt;2万鲸币&lt;/color&gt;\n4、千元赛可免费复活&lt;color=#FFCF0F&gt;3次&lt;/color&gt;\n5、享受vip9所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
     <t>1、每日可领取免费&lt;color=#FFCF0F&gt;至尊礼包1个&lt;/color&gt;\n2、每领满30次至尊礼包额外奖励&lt;color=#FFCF0F&gt;100万鱼币&lt;/color&gt;\n3、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;70次&lt;/color&gt;\n4、福卡容量提升为&lt;color=#FFCF0F&gt;80000福卡&lt;/color&gt;\n5、享受vip10所有特权并提高部分特权奖励</t>
   </si>
   <si>
     <t>1、每日可领取免费&lt;color=#FFCF0F&gt;至尊礼包1个&lt;/color&gt;\n2、每领满30次至尊礼包额外奖励&lt;color=#FFCF0F&gt;200元话费&lt;/color&gt;\n3、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;70次&lt;/color&gt;\n4、福卡容量提升为&lt;color=#FFCF0F&gt;120000福卡&lt;/color&gt;\n5、享受vip11所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;5次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;8万福利券&lt;/color&gt;\n3、享受vip1所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;10次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;20万福利券&lt;/color&gt;\n3、享受vip2所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;20次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;40万福利券&lt;/color&gt;\n3、享受vip3所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;30次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;60万福利券&lt;/color&gt;\n3、畅玩所有游戏\n4、享受vip4所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;80万福利券&lt;/color&gt;\n3、享受vip5所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;100万福利券&lt;/color&gt;\n3、享受vip6所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;2000万福利券&lt;/color&gt;\n3、享受vip7所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;300万福利券&lt;/color&gt;\n3、享受vip8所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;500万福利券&lt;/color&gt;\n3、享受vip9所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;2次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;2万福利券&lt;/color&gt;\n3、享受兑换商城商品&lt;color=#C86715&gt;99%&lt;/color&gt;兑换权\n4、享受vip专享福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -146,18 +147,21 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -169,18 +173,21 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -252,7 +259,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +290,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,7 +576,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,8 +624,8 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
+      <c r="B2" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -633,8 +643,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
@@ -652,8 +662,8 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -663,8 +673,8 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>18</v>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
@@ -674,8 +684,8 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
@@ -685,8 +695,8 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
+      <c r="B7" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -696,8 +706,8 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>21</v>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -707,8 +717,8 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>22</v>
+      <c r="B9" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
@@ -718,8 +728,8 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>23</v>
+      <c r="B10" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -729,8 +739,8 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>24</v>
+      <c r="B11" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>12</v>
@@ -741,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>13</v>
@@ -752,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>14</v>

--- a/config_Release/vip_up_config.xlsx
+++ b/config_Release/vip_up_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -124,11 +124,11 @@
     <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;500万福利券&lt;/color&gt;\n3、享受vip9所有特权并提高部分特权奖励</t>
   </si>
   <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;2次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;2万福利券&lt;/color&gt;\n3、享受兑换商城商品&lt;color=#C86715&gt;99%&lt;/color&gt;兑换权\n4、享受vip专享福利</t>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;200万福利券&lt;/color&gt;\n3、享受vip7所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;200万福利券&lt;/color&gt;\n3、享受vip7所有特权并提高部分特权奖励</t>
+    <t>1、福利券容量提升为&lt;color=#C86715&gt;2万福利券&lt;/color&gt;\n2、享受兑换商城商品&lt;color=#C86715&gt;99%&lt;/color&gt;兑换权\n3、享受vip专享福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +577,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -719,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>

--- a/config_Release/vip_up_config.xlsx
+++ b/config_Release/vip_up_config.xlsx
@@ -94,27 +94,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1、每日可领取免费&lt;color=#FFCF0F&gt;至尊礼包1个&lt;/color&gt;\n2、每领满30次至尊礼包额外奖励&lt;color=#FFCF0F&gt;100万鱼币&lt;/color&gt;\n3、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;70次&lt;/color&gt;\n4、福卡容量提升为&lt;color=#FFCF0F&gt;80000福卡&lt;/color&gt;\n5、享受vip10所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、每日可领取免费&lt;color=#FFCF0F&gt;至尊礼包1个&lt;/color&gt;\n2、每领满30次至尊礼包额外奖励&lt;color=#FFCF0F&gt;200元话费&lt;/color&gt;\n3、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;70次&lt;/color&gt;\n4、福卡容量提升为&lt;color=#FFCF0F&gt;120000福卡&lt;/color&gt;\n5、享受vip11所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;5次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;8万福利券&lt;/color&gt;\n3、享受vip1所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;10次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;20万福利券&lt;/color&gt;\n3、享受vip2所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;20次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;40万福利券&lt;/color&gt;\n3、享受vip3所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;30次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;60万福利券&lt;/color&gt;\n3、畅玩所有游戏\n4、享受vip4所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;80万福利券&lt;/color&gt;\n3、享受vip5所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
     <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;100万福利券&lt;/color&gt;\n3、享受vip6所有特权并提高部分特权奖励</t>
   </si>
   <si>
@@ -128,7 +107,35 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1、福利券容量提升为&lt;color=#C86715&gt;2万福利券&lt;/color&gt;\n2、享受兑换商城商品&lt;color=#C86715&gt;99%&lt;/color&gt;兑换权\n3、享受vip专享福利</t>
+    <t>1、福利券容量提升为&lt;color=#C86715&gt;5000福利券&lt;/color&gt;\n2、享受兑换商城商品&lt;color=#C86715&gt;99%&lt;/color&gt;兑换权\n3、享受vip专享福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;5次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;4万福利券&lt;/color&gt;\n3、享受vip1所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;10次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;10万福利券&lt;/color&gt;\n3、享受vip2所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;20次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;15万福利券&lt;/color&gt;\n3、享受vip3所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;30次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;30万福利券&lt;/color&gt;\n3、畅玩所有游戏\n4、享受vip4所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;50万福利券&lt;/color&gt;\n3、享受vip5所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、每日可领取免费&lt;color=#FFCF0F&gt;至尊礼包1个&lt;/color&gt;\n2、每领满30次至尊礼包额外奖励&lt;color=#FFCF0F&gt;100万鱼币&lt;/color&gt;\n3、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;70次&lt;/color&gt;\n4、福卡容量提升为&lt;color=#FFCF0F&gt;800万福卡&lt;/color&gt;\n5、享受vip10所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、每日可领取免费&lt;color=#FFCF0F&gt;至尊礼包1个&lt;/color&gt;\n2、每领满30次至尊礼包额外奖励&lt;color=#FFCF0F&gt;200元话费&lt;/color&gt;\n3、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;70次&lt;/color&gt;\n4、福卡容量提升为&lt;color=#FFCF0F&gt;1200万福卡&lt;/color&gt;\n5、享受vip11所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -283,10 +290,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -296,6 +299,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -577,7 +584,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,8 +632,8 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>26</v>
+      <c r="B2" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -644,8 +651,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
@@ -663,8 +670,8 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
+      <c r="B4" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -674,8 +681,8 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
@@ -685,8 +692,8 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
+      <c r="B6" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
@@ -696,8 +703,8 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -708,7 +715,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -718,8 +725,8 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>25</v>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
@@ -730,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -741,9 +748,9 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -751,10 +758,10 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -762,10 +769,10 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
     </row>

--- a/config_Release/vip_up_config.xlsx
+++ b/config_Release/vip_up_config.xlsx
@@ -94,48 +94,150 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;100万福利券&lt;/color&gt;\n3、享受vip6所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;300万福利券&lt;/color&gt;\n3、享受vip8所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;500万福利券&lt;/color&gt;\n3、享受vip9所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;200万福利券&lt;/color&gt;\n3、享受vip7所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、福利券容量提升为&lt;color=#C86715&gt;5000福利券&lt;/color&gt;\n2、享受兑换商城商品&lt;color=#C86715&gt;99%&lt;/color&gt;兑换权\n3、享受vip专享福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;5次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;4万福利券&lt;/color&gt;\n3、享受vip1所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;10次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;10万福利券&lt;/color&gt;\n3、享受vip2所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;20次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;15万福利券&lt;/color&gt;\n3、享受vip3所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;30次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;30万福利券&lt;/color&gt;\n3、畅玩所有游戏\n4、享受vip4所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;50万福利券&lt;/color&gt;\n3、享受vip5所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、每日可领取免费&lt;color=#FFCF0F&gt;至尊礼包1个&lt;/color&gt;\n2、每领满30次至尊礼包额外奖励&lt;color=#FFCF0F&gt;100万鱼币&lt;/color&gt;\n3、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;70次&lt;/color&gt;\n4、福卡容量提升为&lt;color=#FFCF0F&gt;800万福卡&lt;/color&gt;\n5、享受vip10所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、每日可领取免费&lt;color=#FFCF0F&gt;至尊礼包1个&lt;/color&gt;\n2、每领满30次至尊礼包额外奖励&lt;color=#FFCF0F&gt;200元话费&lt;/color&gt;\n3、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;70次&lt;/color&gt;\n4、福卡容量提升为&lt;color=#FFCF0F&gt;1200万福卡&lt;/color&gt;\n5、享受vip11所有特权并提高部分特权奖励</t>
+    <t>1、福利券容量提升为&lt;color=#C86715&gt;5000福利券&lt;/color&gt;\n2、享受兑换商城商品&lt;color=#C86715&gt;99%&lt;/color&gt;兑换权\n3、每日最多可参加排名挑战赛2次\n4、享受vip专享福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;500万福利券&lt;/color&gt;\n3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、每日最多可参加排名挑战赛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次\n4、享受vip9所有特权并提高部分特权奖励</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;300万福利券&lt;/color&gt;\n3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、每日最多可参加排名挑战赛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次\n4、享受vip8所有特权并提高部分特权奖励</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;200万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛9次\n4、享受vip7所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;100万福利券&lt;/color&gt;\n3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、每日最多可参加排名挑战赛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次\n4、享受vip6所有特权并提高部分特权奖励</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;50万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛7次\n4、享受vip5所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;30次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;30万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛6次\n4、畅玩所有游戏\n4、享受vip4所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;20次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;15万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛5次\n4、享受vip3所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;10次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;10万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛4次\n4、享受vip2所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;5次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;4万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛3次\n4、享受vip1所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、每日可领取免费&lt;color=#FFCF0F&gt;至尊礼包1个&lt;/color&gt;\n2、每领满30次至尊礼包额外奖励&lt;color=#FFCF0F&gt;100万鱼币&lt;/color&gt;\n3、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;70次&lt;/color&gt;\n4、福卡容量提升为&lt;color=#FFCF0F&gt;800万福卡&lt;/color&gt;\n5、每日最多可参加排名挑战赛12次\n6、享受vip10所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、每日可领取免费&lt;color=#FFCF0F&gt;至尊礼包1个&lt;/color&gt;\n2、每领满30次至尊礼包额外奖励&lt;color=#FFCF0F&gt;200元话费&lt;/color&gt;\n3、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;70次&lt;/color&gt;\n4、福卡容量提升为&lt;color=#FFCF0F&gt;1200万福卡&lt;/color&gt;\n5、每日最多可参加排名挑战赛13次\n6、享受vip11所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -652,7 +754,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
@@ -671,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -693,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
@@ -704,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -714,8 +816,8 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
+      <c r="B8" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -736,8 +838,8 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
+      <c r="B10" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -747,8 +849,8 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
+      <c r="B11" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>12</v>

--- a/config_Release/vip_up_config.xlsx
+++ b/config_Release/vip_up_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -94,150 +94,51 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1、福利券容量提升为&lt;color=#C86715&gt;5000福利券&lt;/color&gt;\n2、享受兑换商城商品&lt;color=#C86715&gt;99%&lt;/color&gt;兑换权\n3、每日最多可参加排名挑战赛2次\n4、享受vip专享福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;500万福利券&lt;/color&gt;\n3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、每日最多可参加排名挑战赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>次\n4、享受vip9所有特权并提高部分特权奖励</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;300万福利券&lt;/color&gt;\n3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、每日最多可参加排名挑战赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>次\n4、享受vip8所有特权并提高部分特权奖励</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;200万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛9次\n4、享受vip7所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;100万福利券&lt;/color&gt;\n3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、每日最多可参加排名挑战赛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>次\n4、享受vip6所有特权并提高部分特权奖励</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;50万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛7次\n4、享受vip5所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;30次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;30万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛6次\n4、畅玩所有游戏\n4、享受vip4所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;20次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;15万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛5次\n4、享受vip3所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;10次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;10万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛4次\n4、享受vip2所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;5次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;4万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛3次\n4、享受vip1所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、每日可领取免费&lt;color=#FFCF0F&gt;至尊礼包1个&lt;/color&gt;\n2、每领满30次至尊礼包额外奖励&lt;color=#FFCF0F&gt;100万鱼币&lt;/color&gt;\n3、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;70次&lt;/color&gt;\n4、福卡容量提升为&lt;color=#FFCF0F&gt;800万福卡&lt;/color&gt;\n5、每日最多可参加排名挑战赛12次\n6、享受vip10所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、每日可领取免费&lt;color=#FFCF0F&gt;至尊礼包1个&lt;/color&gt;\n2、每领满30次至尊礼包额外奖励&lt;color=#FFCF0F&gt;200元话费&lt;/color&gt;\n3、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;70次&lt;/color&gt;\n4、福卡容量提升为&lt;color=#FFCF0F&gt;1200万福卡&lt;/color&gt;\n5、每日最多可参加排名挑战赛13次\n6、享受vip11所有特权并提高部分特权奖励</t>
+    <t>1、福利券容量提升为&lt;color=#C86715&gt;5000福利券&lt;/color&gt;\n2、享受兑换商城商品&lt;color=#C86715&gt;99%&lt;/color&gt;兑换权\n3、每日最多可参加排名挑战赛4次\n4、享受vip专享福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;5次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;4万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛5次\n4、享受vip1所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;10次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;10万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛6次\n4、享受vip2所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;20次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;15万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛7次\n4、享受vip3所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;30次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;30万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛8次\n4、畅玩所有游戏\n4、享受vip4所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;50万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛9次\n4、享受vip5所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;100万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛10次\n4、享受vip6所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;200万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛11次\n4、享受vip7所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;300万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛12次\n4、享受vip8所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;\n2、福利券容量提升为&lt;color=#C86715&gt;500万福利券&lt;/color&gt;\n3、每日最多可参加排名挑战赛15次\n4、享受vip9所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、每日可领取免费&lt;color=#FFCF0F&gt;至尊礼包1个&lt;/color&gt;\n2、每领满30次至尊礼包额外奖励&lt;color=#FFCF0F&gt;100万鱼币&lt;/color&gt;\n3、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;70次&lt;/color&gt;\n4、福卡容量提升为&lt;color=#FFCF0F&gt;800万福卡&lt;/color&gt;\n5、每日最多可参加排名挑战赛15次\n6、享受vip10所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、每日可领取免费&lt;color=#FFCF0F&gt;至尊礼包1个&lt;/color&gt;\n2、每领满30次至尊礼包额外奖励&lt;color=#FFCF0F&gt;200元话费&lt;/color&gt;\n3、可使用Vip超级转盘，每日可抽&lt;color=#FFCF0F&gt;70次&lt;/color&gt;\n4、福卡容量提升为&lt;color=#FFCF0F&gt;1200万福卡&lt;/color&gt;\n5、每日最多可参加排名挑战赛15次\n6、享受vip11所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +587,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -754,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
@@ -773,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -784,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
@@ -795,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
@@ -817,7 +718,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -828,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
@@ -839,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -850,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>12</v>
